--- a/Sheets/PlanSheet1.xlsx
+++ b/Sheets/PlanSheet1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SRMB1ReactUseCase\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D619DA6A-355F-4D9E-990B-CC610F305572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D06E0A38-830F-45CB-8F2E-291C7F6FBC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{59DD5798-D471-47CA-A4A5-44D79673E654}"/>
+    <workbookView xWindow="3900" yWindow="5700" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{59DD5798-D471-47CA-A4A5-44D79673E654}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>HOME PAGE</t>
   </si>
@@ -254,6 +255,54 @@
   </si>
   <si>
     <t>SHELF</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>pcode</t>
+  </si>
+  <si>
+    <t>pname</t>
+  </si>
+  <si>
+    <t>pdesc</t>
+  </si>
+  <si>
+    <t>pprice</t>
+  </si>
+  <si>
+    <t>pmanu_date</t>
+  </si>
+  <si>
+    <t>pexp_date</t>
+  </si>
+  <si>
+    <t>pquantity</t>
+  </si>
+  <si>
+    <t>pcategory</t>
+  </si>
+  <si>
+    <t>supply date</t>
+  </si>
+  <si>
+    <t>ordercode</t>
+  </si>
+  <si>
+    <t>supplierphone</t>
+  </si>
+  <si>
+    <t>suppliername</t>
+  </si>
+  <si>
+    <t>supplier address</t>
+  </si>
+  <si>
+    <t>supplier email</t>
+  </si>
+  <si>
+    <t>orderdate</t>
   </si>
 </sst>
 </file>
@@ -377,51 +426,51 @@
   </cellStyleXfs>
   <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -740,7 +789,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{791AFD41-4F3A-4D80-B589-37063D02D0B0}">
   <dimension ref="C1:W28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="V20" sqref="V20"/>
     </sheetView>
   </sheetViews>
@@ -750,164 +799,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
     </row>
     <row r="2" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
     </row>
     <row r="3" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="T3" s="16" t="s">
+      <c r="T3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="U3" s="14" t="s">
+      <c r="U3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V3" s="15" t="s">
+      <c r="V3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="W3" s="15"/>
+      <c r="W3" s="13"/>
     </row>
     <row r="5" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G5" s="2"/>
-      <c r="K5" s="2" t="s">
+      <c r="G5" s="17"/>
+      <c r="K5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="2"/>
-      <c r="P5" s="2" t="s">
+      <c r="L5" s="17"/>
+      <c r="P5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Q5" s="2"/>
-      <c r="T5" s="16" t="s">
+      <c r="Q5" s="17"/>
+      <c r="T5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="W5" s="15"/>
+      <c r="W5" s="13"/>
     </row>
     <row r="7" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G7" s="3"/>
-      <c r="K7" s="3" t="s">
+      <c r="G7" s="18"/>
+      <c r="K7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="L7" s="3"/>
-      <c r="P7" s="3" t="s">
+      <c r="L7" s="18"/>
+      <c r="P7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="Q7" s="3"/>
+      <c r="Q7" s="18"/>
     </row>
     <row r="9" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="K9" s="4" t="s">
+      <c r="G9" s="16"/>
+      <c r="K9" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="L9" s="4"/>
-      <c r="P9" s="4" t="s">
+      <c r="L9" s="16"/>
+      <c r="P9" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q9" s="4"/>
+      <c r="Q9" s="16"/>
     </row>
     <row r="11" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C11">
         <v>1</v>
       </c>
-      <c r="G11" s="5" t="s">
+      <c r="G11" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="5"/>
-      <c r="L11" s="5" t="s">
+      <c r="H11" s="14"/>
+      <c r="L11" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="5"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="10" t="s">
+      <c r="M11" s="14"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="10"/>
+      <c r="R11" s="12"/>
     </row>
     <row r="13" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C13">
         <v>2</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="9"/>
+      <c r="H13" s="7"/>
       <c r="K13" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="M13" s="6"/>
-      <c r="Q13" s="12"/>
-      <c r="R13" s="12"/>
+      <c r="M13" s="15"/>
+      <c r="Q13" s="3"/>
+      <c r="R13" s="3"/>
     </row>
     <row r="15" spans="3:23" x14ac:dyDescent="0.3">
       <c r="C15">
         <v>3</v>
       </c>
-      <c r="G15" s="13" t="s">
+      <c r="G15" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="11"/>
       <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="M15" s="13"/>
-      <c r="Q15" s="13" t="s">
+      <c r="M15" s="11"/>
+      <c r="Q15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R15" s="13"/>
+      <c r="R15" s="11"/>
     </row>
     <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17">
         <v>4</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="G17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="H17" s="9"/>
+      <c r="H17" s="7"/>
     </row>
     <row r="18" spans="3:15" x14ac:dyDescent="0.3">
       <c r="G18" s="8" t="s">
@@ -919,55 +968,134 @@
       <c r="D19" t="s">
         <v>10</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="17"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="24" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="K24" s="12"/>
-      <c r="L24" s="12"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
     </row>
     <row r="28" spans="3:15" x14ac:dyDescent="0.3">
-      <c r="F28" s="18" t="s">
+      <c r="F28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G28" s="18"/>
-      <c r="M28" s="19" t="s">
+      <c r="G28" s="10"/>
+      <c r="M28" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="N28" s="19"/>
-      <c r="O28" s="19"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="J2:M2"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P5:Q5"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="P7:Q7"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="P9:Q9"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="L13:M13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="Q15:R15"/>
+    <mergeCell ref="V3:W3"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="M28:O28"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="G18:H18"/>
     <mergeCell ref="E19:F19"/>
     <mergeCell ref="F28:G28"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="Q15:R15"/>
-    <mergeCell ref="V3:W3"/>
-    <mergeCell ref="V5:W5"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="P9:Q9"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="J2:M2"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="P7:Q7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0999ACFC-28D7-4967-949F-1028DC0E51EC}">
+  <dimension ref="A2:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="5" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="11.44140625" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>